--- a/TestStatistics/Week9-TestStatistics.xlsx
+++ b/TestStatistics/Week9-TestStatistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telerik Academy\Quality Assurance\Team-Lich\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telerik Academy\Quality Assurance\Team-Lich\TestsAndPlans\TestStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,30 +94,178 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
     <t>Total
 tests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Week 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sikuli tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Week 8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTF tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Week 7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTF tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Week 6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTF tests</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +372,25 @@
     </font>
     <font>
       <b/>
+      <sz val="24"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="24"/>
       <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
@@ -435,9 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,16 +620,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,38 +656,50 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,272 +1016,280 @@
     <col min="15" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16"/>
+    <row r="1" spans="1:20" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="25"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="18"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="3" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="18"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="18"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="11">
+    <row r="5" spans="1:20" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11"/>
+      <c r="B5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9">
         <v>108</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15"/>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="28">
+    <row r="6" spans="1:20" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11"/>
+      <c r="B6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
         <v>7</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="23">
         <v>55</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="23">
         <v>19</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="9">
+      <c r="F6" s="23"/>
+      <c r="G6" s="8">
         <f>SUM(C6:F6)</f>
         <v>81</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="24">
         <v>1</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="24">
         <v>20</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="37">
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="30">
         <f>SUM(H6:K6)</f>
         <v>21</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>77</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <f>SUM(G6, L6:M6)</f>
         <v>179</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15"/>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="28">
+    <row r="7" spans="1:20" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11"/>
+      <c r="B7" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="23">
         <v>18</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="23">
         <v>57</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="23">
         <v>7</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="23">
         <v>14</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f>SUM(C7:F7)</f>
         <v>96</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29">
+      <c r="H7" s="24"/>
+      <c r="I7" s="24">
         <v>12</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="24">
         <v>4</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="24">
         <v>7</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="30">
         <f>SUM(H7:K7)</f>
         <v>23</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>81</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <f>SUM(G7, L7:M7)</f>
         <v>200</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="15"/>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="9">
+    <row r="8" spans="1:20" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11"/>
+      <c r="B8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23">
+        <v>13</v>
+      </c>
+      <c r="F8" s="23">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
         <f>SUM(C8:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="37">
+        <v>23</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24">
+        <v>2</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="30">
         <f>SUM(H8:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="11">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9">
         <f>SUM(G8, L8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="26"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O10" s="19"/>
+      <c r="O10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N2:N4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="C2:L2"/>
-    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
